--- a/electricityavailable.xlsx
+++ b/electricityavailable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kiran\Documents\University\Economics Yr 3\My Courses\EC3310 Coding\GithubRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6622FF9-BFC3-45CD-BA08-3CD063541FA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A0CB0D-8C8C-49CD-AEE9-BAECD5ED7B9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{18AF7E34-3144-47ED-8AC9-E1DCFD175C6D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Electricty Available</t>
+    <t>Electricity Available</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
